--- a/DJOLT_results/ipc_col.xlsx
+++ b/DJOLT_results/ipc_col.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandon/Documents/CoursesWi22/CSE240C/Homework1/ChampSim/DJOLT_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD1A6D37-5587-F842-923E-48177B341A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318BA659-C79F-9D42-B398-3D7E5408299A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="1580" windowWidth="27640" windowHeight="16940" xr2:uid="{B4CCD423-8A82-E34E-AE4D-51ADB312D7E4}"/>
+    <workbookView xWindow="7280" yWindow="1580" windowWidth="27640" windowHeight="16940" xr2:uid="{B4CCD423-8A82-E34E-AE4D-51ADB312D7E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Tracename</t>
   </si>
@@ -192,25 +192,7 @@
     <t>Average</t>
   </si>
   <si>
-    <t>DJOLT_1024_1024</t>
-  </si>
-  <si>
-    <t>DJOLT_1024_512</t>
-  </si>
-  <si>
-    <t>DJOLT_13_6</t>
-  </si>
-  <si>
-    <t>DJOLT_13</t>
-  </si>
-  <si>
-    <t>DJOLT_17_2</t>
-  </si>
-  <si>
     <t>DJOLT_2048_2048</t>
-  </si>
-  <si>
-    <t>DJOLT_2048_512</t>
   </si>
   <si>
     <t>DJOLT_4096_1024</t>
@@ -229,17 +211,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -271,10 +246,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263F2C88-8720-1843-AACE-DCE4658E84B9}">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,58 +574,46 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
         <v>52</v>
       </c>
       <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -666,34 +628,28 @@
         <v>1.0410730927972307</v>
       </c>
       <c r="E2">
-        <v>1.24997</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.2501500000000001</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.25122</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.25122</v>
+        <v>1.25098</v>
+      </c>
+      <c r="F2">
+        <f>E2/C2</f>
+        <v>0.99988810026216512</v>
+      </c>
+      <c r="G2">
+        <v>1.2519100000000001</v>
+      </c>
+      <c r="H2">
+        <f>G2/B2</f>
+        <v>1.0417304619890828</v>
       </c>
       <c r="I2">
-        <v>1.2537700000000001</v>
+        <v>1.25098</v>
       </c>
       <c r="J2">
-        <v>1.25098</v>
-      </c>
-      <c r="K2">
-        <v>1.25095</v>
-      </c>
-      <c r="L2">
-        <v>1.2519100000000001</v>
-      </c>
-      <c r="M2">
-        <v>1.25098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <f>I2/B2</f>
+        <v>1.0409565969910799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -708,34 +664,28 @@
         <v>1.1242910288467403</v>
       </c>
       <c r="E3">
-        <v>1.64314</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.61436</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.66137</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.66137</v>
+        <v>1.6634599999999999</v>
+      </c>
+      <c r="F3">
+        <f>E3/C3</f>
+        <v>1.002597715697797</v>
+      </c>
+      <c r="G3">
+        <v>1.6624099999999999</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H52" si="1">G3/B3</f>
+        <v>1.1265001050327634</v>
       </c>
       <c r="I3">
-        <v>1.65168</v>
+        <v>1.6634599999999999</v>
       </c>
       <c r="J3">
-        <v>1.6634599999999999</v>
-      </c>
-      <c r="K3">
-        <v>1.65221</v>
-      </c>
-      <c r="L3">
-        <v>1.6624099999999999</v>
-      </c>
-      <c r="M3">
-        <v>1.6634599999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J3:J52" si="2">I3/B3</f>
+        <v>1.1272116173012678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -750,34 +700,28 @@
         <v>1.0609634219468318</v>
       </c>
       <c r="E4">
-        <v>1.2667999999999999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.25925</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1.2781</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.2781</v>
+        <v>1.2839499999999999</v>
+      </c>
+      <c r="F4">
+        <f>E4/C4</f>
+        <v>1.007873335845265</v>
+      </c>
+      <c r="G4">
+        <v>1.2794399999999999</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1.0655606636018389</v>
       </c>
       <c r="I4">
-        <v>1.26709</v>
+        <v>1.2839499999999999</v>
       </c>
       <c r="J4">
-        <v>1.2839499999999999</v>
-      </c>
-      <c r="K4">
-        <v>1.26528</v>
-      </c>
-      <c r="L4">
-        <v>1.2794399999999999</v>
-      </c>
-      <c r="M4">
-        <v>1.2839499999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.0693167432873609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -792,34 +736,28 @@
         <v>1.0781086096990238</v>
       </c>
       <c r="E5">
-        <v>1.1958500000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.1876</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.1999599999999999</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.1999599999999999</v>
+        <v>1.2238599999999999</v>
+      </c>
+      <c r="F5">
+        <f>E5/C5</f>
+        <v>1.0177714575588985</v>
+      </c>
+      <c r="G5">
+        <v>1.21814</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>1.0921398280391261</v>
       </c>
       <c r="I5">
-        <v>1.1999500000000001</v>
+        <v>1.2238599999999999</v>
       </c>
       <c r="J5">
-        <v>1.2238599999999999</v>
-      </c>
-      <c r="K5">
-        <v>1.1989399999999999</v>
-      </c>
-      <c r="L5">
-        <v>1.21814</v>
-      </c>
-      <c r="M5">
-        <v>1.2238599999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.0972681711001731</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -834,34 +772,28 @@
         <v>1.072136746327746</v>
       </c>
       <c r="E6">
-        <v>1.25648</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.24949</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.26196</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.26196</v>
+        <v>1.2802899999999999</v>
+      </c>
+      <c r="F6">
+        <f>E6/C6</f>
+        <v>1.0145089462590531</v>
+      </c>
+      <c r="G6">
+        <v>1.2741400000000001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1.0824674828175045</v>
       </c>
       <c r="I6">
-        <v>1.25908</v>
+        <v>1.2802899999999999</v>
       </c>
       <c r="J6">
-        <v>1.2802899999999999</v>
-      </c>
-      <c r="K6">
-        <v>1.2567999999999999</v>
-      </c>
-      <c r="L6">
-        <v>1.2741400000000001</v>
-      </c>
-      <c r="M6">
-        <v>1.2802899999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.0876923207625713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -876,34 +808,28 @@
         <v>1.1182432432432432</v>
       </c>
       <c r="E7">
-        <v>1.1894899999999999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.19319</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.19408</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.19408</v>
+        <v>1.1949799999999999</v>
+      </c>
+      <c r="F7">
+        <f>E7/C7</f>
+        <v>1.0000585818178775</v>
+      </c>
+      <c r="G7">
+        <v>1.19557</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1.1188608969079883</v>
       </c>
       <c r="I7">
-        <v>1.1910799999999999</v>
+        <v>1.1949799999999999</v>
       </c>
       <c r="J7">
-        <v>1.1949799999999999</v>
-      </c>
-      <c r="K7">
-        <v>1.1921299999999999</v>
-      </c>
-      <c r="L7">
-        <v>1.19557</v>
-      </c>
-      <c r="M7">
-        <v>1.1949799999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.1183087519652617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -918,34 +844,28 @@
         <v>1.1308197949661116</v>
       </c>
       <c r="E8">
-        <v>1.3275999999999999</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.3273699999999999</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.3278300000000001</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1.3278300000000001</v>
+        <v>1.3288899999999999</v>
+      </c>
+      <c r="F8">
+        <f>E8/C8</f>
+        <v>1.0006099030178905</v>
+      </c>
+      <c r="G8">
+        <v>1.3288</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>1.1314328531044584</v>
       </c>
       <c r="I8">
-        <v>1.3283</v>
+        <v>1.3288899999999999</v>
       </c>
       <c r="J8">
-        <v>1.3288899999999999</v>
-      </c>
-      <c r="K8">
-        <v>1.32866</v>
-      </c>
-      <c r="L8">
-        <v>1.3288</v>
-      </c>
-      <c r="M8">
-        <v>1.3288899999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.1315094853717516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -960,34 +880,28 @@
         <v>1.0568486787778695</v>
       </c>
       <c r="E9">
-        <v>1.2258500000000001</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.22462</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1.22855</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1.22855</v>
+        <v>1.23227</v>
+      </c>
+      <c r="F9">
+        <f>E9/C9</f>
+        <v>1.0029463232002604</v>
+      </c>
+      <c r="G9">
+        <v>1.23184</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.0595926231764383</v>
       </c>
       <c r="I9">
-        <v>1.22705</v>
+        <v>1.23227</v>
       </c>
       <c r="J9">
-        <v>1.23227</v>
-      </c>
-      <c r="K9">
-        <v>1.22742</v>
-      </c>
-      <c r="L9">
-        <v>1.23184</v>
-      </c>
-      <c r="M9">
-        <v>1.23227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.0599624965593173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1002,34 +916,28 @@
         <v>1.1680752165645469</v>
       </c>
       <c r="E10">
-        <v>1.4373</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.43571</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.4419200000000001</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.4419200000000001</v>
+        <v>1.4433</v>
+      </c>
+      <c r="F10">
+        <f>E10/C10</f>
+        <v>1.004097647852735</v>
+      </c>
+      <c r="G10">
+        <v>1.4469399999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1.1758195322530838</v>
       </c>
       <c r="I10">
-        <v>1.4437899999999999</v>
+        <v>1.4433</v>
       </c>
       <c r="J10">
-        <v>1.4433</v>
-      </c>
-      <c r="K10">
-        <v>1.44136</v>
-      </c>
-      <c r="L10">
-        <v>1.4469399999999999</v>
-      </c>
-      <c r="M10">
-        <v>1.4433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.1728615774675357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1044,34 +952,28 @@
         <v>1.1204487447547911</v>
       </c>
       <c r="E11">
-        <v>1.5540400000000001</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1.55392</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1.55399</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.55399</v>
+        <v>1.55406</v>
+      </c>
+      <c r="F11">
+        <f>E11/C11</f>
+        <v>1.000012869681604</v>
+      </c>
+      <c r="G11">
+        <v>1.5541100000000001</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.1204992141198864</v>
       </c>
       <c r="I11">
-        <v>1.55372</v>
+        <v>1.55406</v>
       </c>
       <c r="J11">
-        <v>1.55406</v>
-      </c>
-      <c r="K11">
-        <v>1.5539000000000001</v>
-      </c>
-      <c r="L11">
-        <v>1.5541100000000001</v>
-      </c>
-      <c r="M11">
-        <v>1.55406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.1204631645733896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1086,34 +988,28 @@
         <v>1.232079118403224</v>
       </c>
       <c r="E12">
-        <v>1.00474</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.99046199999999995</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1.0176000000000001</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1.0176000000000001</v>
+        <v>1.03291</v>
+      </c>
+      <c r="F12">
+        <f>E12/C12</f>
+        <v>1.0133324176902248</v>
+      </c>
+      <c r="G12">
+        <v>1.0280899999999999</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1.2426796500011483</v>
       </c>
       <c r="I12">
-        <v>1.01339</v>
+        <v>1.03291</v>
       </c>
       <c r="J12">
-        <v>1.03291</v>
-      </c>
-      <c r="K12">
-        <v>1.0134099999999999</v>
-      </c>
-      <c r="L12">
-        <v>1.0280899999999999</v>
-      </c>
-      <c r="M12">
-        <v>1.03291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.2485057118371798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1128,34 +1024,28 @@
         <v>1.2155924023042191</v>
       </c>
       <c r="E13">
-        <v>0.80642000000000003</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.79574999999999996</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.81160399999999999</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.81160399999999999</v>
+        <v>0.817774</v>
+      </c>
+      <c r="F13">
+        <f>E13/C13</f>
+        <v>1.0071033957877158</v>
+      </c>
+      <c r="G13">
+        <v>0.81762999999999997</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1.2240116648103569</v>
       </c>
       <c r="I13">
-        <v>0.80737999999999999</v>
+        <v>0.817774</v>
       </c>
       <c r="J13">
-        <v>0.817774</v>
-      </c>
-      <c r="K13">
-        <v>0.80918900000000005</v>
-      </c>
-      <c r="L13">
-        <v>0.81762999999999997</v>
-      </c>
-      <c r="M13">
-        <v>0.817774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.2242272362543263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1170,34 +1060,28 @@
         <v>1.24249152198487</v>
       </c>
       <c r="E14">
-        <v>0.85317299999999996</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.84531299999999998</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.85751299999999997</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.85751299999999997</v>
+        <v>0.85768999999999995</v>
+      </c>
+      <c r="F14">
+        <f>E14/C14</f>
+        <v>1.0004035719617796</v>
+      </c>
+      <c r="G14">
+        <v>0.85802500000000004</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1.2434784499000031</v>
       </c>
       <c r="I14">
-        <v>0.85565999999999998</v>
+        <v>0.85768999999999995</v>
       </c>
       <c r="J14">
-        <v>0.85768999999999995</v>
-      </c>
-      <c r="K14">
-        <v>0.85668699999999998</v>
-      </c>
-      <c r="L14">
-        <v>0.85802500000000004</v>
-      </c>
-      <c r="M14">
-        <v>0.85768999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.2429929567258919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1212,34 +1096,28 @@
         <v>1.315655417439147</v>
       </c>
       <c r="E15">
-        <v>1.0063599999999999</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.997556</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1.01047</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1.01047</v>
+        <v>1.0092099999999999</v>
+      </c>
+      <c r="F15">
+        <f>E15/C15</f>
+        <v>0.99938603527326375</v>
+      </c>
+      <c r="G15">
+        <v>1.00858</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>1.3140268569172782</v>
       </c>
       <c r="I15">
-        <v>1.0134000000000001</v>
+        <v>1.0092099999999999</v>
       </c>
       <c r="J15">
-        <v>1.0092099999999999</v>
-      </c>
-      <c r="K15">
-        <v>1.0138199999999999</v>
-      </c>
-      <c r="L15">
-        <v>1.00858</v>
-      </c>
-      <c r="M15">
-        <v>1.0092099999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.3148476514203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1254,34 +1132,28 @@
         <v>1.4035216198252838</v>
       </c>
       <c r="E16">
-        <v>1.2508300000000001</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.2322599999999999</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1.25579</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.25579</v>
+        <v>1.2815000000000001</v>
+      </c>
+      <c r="F16">
+        <f>E16/C16</f>
+        <v>1.0131235670804017</v>
+      </c>
+      <c r="G16">
+        <v>1.2768200000000001</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>1.4167479442053277</v>
       </c>
       <c r="I16">
-        <v>1.25143</v>
+        <v>1.2815000000000001</v>
       </c>
       <c r="J16">
-        <v>1.2815000000000001</v>
-      </c>
-      <c r="K16">
-        <v>1.2592399999999999</v>
-      </c>
-      <c r="L16">
-        <v>1.2768200000000001</v>
-      </c>
-      <c r="M16">
-        <v>1.2815000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.421940829951855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1296,34 +1168,28 @@
         <v>1.496229378314899</v>
       </c>
       <c r="E17">
-        <v>1.3728199999999999</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1.3562799999999999</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1.3847400000000001</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.3847400000000001</v>
+        <v>1.38018</v>
+      </c>
+      <c r="F17">
+        <f>E17/C17</f>
+        <v>0.99703817146820006</v>
+      </c>
+      <c r="G17">
+        <v>1.38489</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1.4968887101847319</v>
       </c>
       <c r="I17">
-        <v>1.38612</v>
+        <v>1.38018</v>
       </c>
       <c r="J17">
-        <v>1.38018</v>
-      </c>
-      <c r="K17">
-        <v>1.3812199999999999</v>
-      </c>
-      <c r="L17">
-        <v>1.38489</v>
-      </c>
-      <c r="M17">
-        <v>1.38018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.4917978034520887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1338,34 +1204,28 @@
         <v>1.5273411523738638</v>
       </c>
       <c r="E18">
-        <v>1.33605</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1.3162799999999999</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1.34575</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1.34575</v>
+        <v>1.3470599999999999</v>
+      </c>
+      <c r="F18">
+        <f>E18/C18</f>
+        <v>0.99914701715608101</v>
+      </c>
+      <c r="G18">
+        <v>1.34823</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>1.5273638096921212</v>
       </c>
       <c r="I18">
-        <v>1.32816</v>
+        <v>1.3470599999999999</v>
       </c>
       <c r="J18">
-        <v>1.3470599999999999</v>
-      </c>
-      <c r="K18">
-        <v>1.34487</v>
-      </c>
-      <c r="L18">
-        <v>1.34823</v>
-      </c>
-      <c r="M18">
-        <v>1.3470599999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.5260383565740776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1380,34 +1240,28 @@
         <v>1.272970877713361</v>
       </c>
       <c r="E19">
-        <v>1.50644</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1.504</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1.5109600000000001</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1.5109600000000001</v>
+        <v>1.51156</v>
+      </c>
+      <c r="F19">
+        <f>E19/C19</f>
+        <v>1.0005957660889944</v>
+      </c>
+      <c r="G19">
+        <v>1.5112099999999999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1.2734343400296615</v>
       </c>
       <c r="I19">
-        <v>1.5085999999999999</v>
+        <v>1.51156</v>
       </c>
       <c r="J19">
-        <v>1.51156</v>
-      </c>
-      <c r="K19">
-        <v>1.5092000000000001</v>
-      </c>
-      <c r="L19">
-        <v>1.5112099999999999</v>
-      </c>
-      <c r="M19">
-        <v>1.51156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.27372927059458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1422,34 +1276,28 @@
         <v>1.2997663455626154</v>
       </c>
       <c r="E20">
-        <v>1.5854699999999999</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1.5855300000000001</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1.5855600000000001</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.5855600000000001</v>
+        <v>1.5854200000000001</v>
+      </c>
+      <c r="F20">
+        <f>E20/C20</f>
+        <v>1.0000189227887144</v>
+      </c>
+      <c r="G20">
+        <v>1.5854600000000001</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>1.2998237343717978</v>
       </c>
       <c r="I20">
-        <v>1.58518</v>
+        <v>1.5854200000000001</v>
       </c>
       <c r="J20">
-        <v>1.5854200000000001</v>
-      </c>
-      <c r="K20">
-        <v>1.5852900000000001</v>
-      </c>
-      <c r="L20">
-        <v>1.5854600000000001</v>
-      </c>
-      <c r="M20">
-        <v>1.5854200000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.2997909407665507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1464,34 +1312,28 @@
         <v>1.4142508135267993</v>
       </c>
       <c r="E21">
-        <v>1.42727</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.4299200000000001</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.4253499999999999</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1.4253499999999999</v>
+        <v>1.4246300000000001</v>
+      </c>
+      <c r="F21">
+        <f>E21/C21</f>
+        <v>0.99634926740567187</v>
+      </c>
+      <c r="G21">
+        <v>1.4303600000000001</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>1.4147552495969455</v>
       </c>
       <c r="I21">
-        <v>1.4233499999999999</v>
+        <v>1.4246300000000001</v>
       </c>
       <c r="J21">
-        <v>1.4246300000000001</v>
-      </c>
-      <c r="K21">
-        <v>1.42845</v>
-      </c>
-      <c r="L21">
-        <v>1.4303600000000001</v>
-      </c>
-      <c r="M21">
-        <v>1.4246300000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.4090877619853019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1506,34 +1348,28 @@
         <v>1.1030646586176434</v>
       </c>
       <c r="E22">
-        <v>0.52449699999999999</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.52279200000000003</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.51701299999999994</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.51701299999999994</v>
+        <v>0.52347200000000005</v>
+      </c>
+      <c r="F22">
+        <f>E22/C22</f>
+        <v>0.9981941920487245</v>
+      </c>
+      <c r="G22">
+        <v>0.52470899999999998</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>1.1036746455765427</v>
       </c>
       <c r="I22">
-        <v>0.51665099999999997</v>
+        <v>0.52347200000000005</v>
       </c>
       <c r="J22">
-        <v>0.52347200000000005</v>
-      </c>
-      <c r="K22">
-        <v>0.52571699999999999</v>
-      </c>
-      <c r="L22">
-        <v>0.52470899999999998</v>
-      </c>
-      <c r="M22">
-        <v>0.52347200000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.1010727356863406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1548,34 +1384,28 @@
         <v>1.1256644845808026</v>
       </c>
       <c r="E23">
-        <v>0.56992100000000001</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.57038500000000003</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.56223599999999996</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.56223599999999996</v>
+        <v>0.57251300000000005</v>
+      </c>
+      <c r="F23">
+        <f>E23/C23</f>
+        <v>1.002839416211823</v>
+      </c>
+      <c r="G23">
+        <v>0.57087399999999999</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1.1256289928227776</v>
       </c>
       <c r="I23">
-        <v>0.563608</v>
+        <v>0.57251300000000005</v>
       </c>
       <c r="J23">
-        <v>0.57251300000000005</v>
-      </c>
-      <c r="K23">
-        <v>0.56845999999999997</v>
-      </c>
-      <c r="L23">
-        <v>0.57087399999999999</v>
-      </c>
-      <c r="M23">
-        <v>0.57251300000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.1288607145673948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1590,34 +1420,28 @@
         <v>1.0985968235306924</v>
       </c>
       <c r="E24">
-        <v>0.50517500000000004</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.50514700000000001</v>
-      </c>
-      <c r="G24" s="1">
-        <v>0.50018600000000002</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.50018600000000002</v>
+        <v>0.504332</v>
+      </c>
+      <c r="F24">
+        <f>E24/C24</f>
+        <v>0.99946492483184768</v>
+      </c>
+      <c r="G24">
+        <v>0.50528200000000001</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1.1000772890064554</v>
       </c>
       <c r="I24">
-        <v>0.504548</v>
+        <v>0.504332</v>
       </c>
       <c r="J24">
-        <v>0.504332</v>
-      </c>
-      <c r="K24">
-        <v>0.50584399999999996</v>
-      </c>
-      <c r="L24">
-        <v>0.50528200000000001</v>
-      </c>
-      <c r="M24">
-        <v>0.504332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.0980089916506102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1632,34 +1456,28 @@
         <v>1.1320343109623801</v>
       </c>
       <c r="E25">
-        <v>0.567222</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.566137</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.557361</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.557361</v>
+        <v>0.57391499999999995</v>
+      </c>
+      <c r="F25">
+        <f>E25/C25</f>
+        <v>1.0027010547391628</v>
+      </c>
+      <c r="G25">
+        <v>0.56879199999999996</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1.1249597022216682</v>
       </c>
       <c r="I25">
-        <v>0.56605399999999995</v>
+        <v>0.57391499999999995</v>
       </c>
       <c r="J25">
-        <v>0.57391499999999995</v>
-      </c>
-      <c r="K25">
-        <v>0.56538900000000003</v>
-      </c>
-      <c r="L25">
-        <v>0.56879199999999996</v>
-      </c>
-      <c r="M25">
-        <v>0.57391499999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.1350919976029001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1674,34 +1492,28 @@
         <v>1.128331946305926</v>
       </c>
       <c r="E26">
-        <v>0.59461299999999995</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.59464799999999995</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.59094999999999998</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.59094999999999998</v>
+        <v>0.59532200000000002</v>
+      </c>
+      <c r="F26">
+        <f>E26/C26</f>
+        <v>1.0001999317879782</v>
+      </c>
+      <c r="G26">
+        <v>0.59337300000000004</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1.1248627980292207</v>
       </c>
       <c r="I26">
-        <v>0.58793499999999999</v>
+        <v>0.59532200000000002</v>
       </c>
       <c r="J26">
-        <v>0.59532200000000002</v>
-      </c>
-      <c r="K26">
-        <v>0.59448699999999999</v>
-      </c>
-      <c r="L26">
-        <v>0.59337300000000004</v>
-      </c>
-      <c r="M26">
-        <v>0.59532200000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.1285575357293838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1716,34 +1528,28 @@
         <v>1.1321995460552887</v>
       </c>
       <c r="E27">
-        <v>0.59381700000000004</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.59603099999999998</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.59022300000000005</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.59022300000000005</v>
+        <v>0.59473200000000004</v>
+      </c>
+      <c r="F27">
+        <f>E27/C27</f>
+        <v>0.99604083765424667</v>
+      </c>
+      <c r="G27">
+        <v>0.596974</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>1.13196821249315</v>
       </c>
       <c r="I27">
-        <v>0.58471899999999999</v>
+        <v>0.59473200000000004</v>
       </c>
       <c r="J27">
-        <v>0.59473200000000004</v>
-      </c>
-      <c r="K27">
-        <v>0.59706899999999996</v>
-      </c>
-      <c r="L27">
-        <v>0.596974</v>
-      </c>
-      <c r="M27">
-        <v>0.59473200000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.1277169842446675</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1758,34 +1564,28 @@
         <v>1.490741005460642</v>
       </c>
       <c r="E28">
-        <v>1.4583299999999999</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1.4590799999999999</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1.46119</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1.46119</v>
+        <v>1.46397</v>
+      </c>
+      <c r="F28">
+        <f>E28/C28</f>
+        <v>1.0027260460688088</v>
+      </c>
+      <c r="G28">
+        <v>1.4621599999999999</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1.4929567110352346</v>
       </c>
       <c r="I28">
-        <v>1.45519</v>
+        <v>1.46397</v>
       </c>
       <c r="J28">
-        <v>1.46397</v>
-      </c>
-      <c r="K28">
-        <v>1.4599299999999999</v>
-      </c>
-      <c r="L28">
-        <v>1.4621599999999999</v>
-      </c>
-      <c r="M28">
-        <v>1.46397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.4948048341181901</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1800,34 +1600,28 @@
         <v>1.5448516118760776</v>
       </c>
       <c r="E29">
-        <v>1.4733499999999999</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1.47132</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1.47481</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1.47481</v>
+        <v>1.47475</v>
+      </c>
+      <c r="F29">
+        <f>E29/C29</f>
+        <v>0.9998915188045373</v>
+      </c>
+      <c r="G29">
+        <v>1.47525</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>1.545207734994124</v>
       </c>
       <c r="I29">
-        <v>1.47759</v>
+        <v>1.47475</v>
       </c>
       <c r="J29">
-        <v>1.47475</v>
-      </c>
-      <c r="K29">
-        <v>1.4732799999999999</v>
-      </c>
-      <c r="L29">
-        <v>1.47525</v>
-      </c>
-      <c r="M29">
-        <v>1.47475</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.5446840245264086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1842,34 +1636,28 @@
         <v>1.5401860145384776</v>
       </c>
       <c r="E30">
-        <v>1.5002500000000001</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1.50007</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1.50013</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1.50013</v>
+        <v>1.5012099999999999</v>
+      </c>
+      <c r="F30">
+        <f>E30/C30</f>
+        <v>1.0000399693568265</v>
+      </c>
+      <c r="G30">
+        <v>1.50135</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>1.5403912153531247</v>
       </c>
       <c r="I30">
-        <v>1.5011300000000001</v>
+        <v>1.5012099999999999</v>
       </c>
       <c r="J30">
-        <v>1.5012099999999999</v>
-      </c>
-      <c r="K30">
-        <v>1.5013000000000001</v>
-      </c>
-      <c r="L30">
-        <v>1.50135</v>
-      </c>
-      <c r="M30">
-        <v>1.5012099999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.5402475747828717</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1884,34 +1672,28 @@
         <v>1.5671027009493654</v>
       </c>
       <c r="E31">
-        <v>1.4569000000000001</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1.4581200000000001</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1.4570399999999999</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1.4570399999999999</v>
+        <v>1.4584600000000001</v>
+      </c>
+      <c r="F31">
+        <f>E31/C31</f>
+        <v>0.99960247834192362</v>
+      </c>
+      <c r="G31">
+        <v>1.4577899999999999</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>1.5657601206388965</v>
       </c>
       <c r="I31">
-        <v>1.4595199999999999</v>
+        <v>1.4584600000000001</v>
       </c>
       <c r="J31">
-        <v>1.4584600000000001</v>
-      </c>
-      <c r="K31">
-        <v>1.45879</v>
-      </c>
-      <c r="L31">
-        <v>1.4577899999999999</v>
-      </c>
-      <c r="M31">
-        <v>1.4584600000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.566479743685308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1926,34 +1708,28 @@
         <v>1.6272039075822278</v>
       </c>
       <c r="E32">
-        <v>1.47096</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1.47085</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1.47058</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1.47058</v>
+        <v>1.4711399999999999</v>
+      </c>
+      <c r="F32">
+        <f>E32/C32</f>
+        <v>1.0004556366331854</v>
+      </c>
+      <c r="G32">
+        <v>1.47037</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>1.6270932488195475</v>
       </c>
       <c r="I32">
-        <v>1.47109</v>
+        <v>1.4711399999999999</v>
       </c>
       <c r="J32">
-        <v>1.4711399999999999</v>
-      </c>
-      <c r="K32">
-        <v>1.4719899999999999</v>
-      </c>
-      <c r="L32">
-        <v>1.47037</v>
-      </c>
-      <c r="M32">
-        <v>1.4711399999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.6279453212921844</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1968,34 +1744,28 @@
         <v>1.5131993796547198</v>
       </c>
       <c r="E33">
-        <v>1.3312200000000001</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1.33321</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1.3308800000000001</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1.3308800000000001</v>
+        <v>1.3300700000000001</v>
+      </c>
+      <c r="F33">
+        <f>E33/C33</f>
+        <v>0.99866351315838875</v>
+      </c>
+      <c r="G33">
+        <v>1.3309599999999999</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>1.5121881941248982</v>
       </c>
       <c r="I33">
-        <v>1.33185</v>
+        <v>1.3300700000000001</v>
       </c>
       <c r="J33">
-        <v>1.3300700000000001</v>
-      </c>
-      <c r="K33">
-        <v>1.33118</v>
-      </c>
-      <c r="L33">
-        <v>1.3309599999999999</v>
-      </c>
-      <c r="M33">
-        <v>1.3300700000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.5111770085950771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2010,34 +1780,28 @@
         <v>1.5277514658928661</v>
       </c>
       <c r="E34">
-        <v>1.3239099999999999</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1.32874</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1.3250999999999999</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1.3250999999999999</v>
+        <v>1.32291</v>
+      </c>
+      <c r="F34">
+        <f>E34/C34</f>
+        <v>1.0002722014290577</v>
+      </c>
+      <c r="G34">
+        <v>1.32267</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>1.5278900846036199</v>
       </c>
       <c r="I34">
-        <v>1.32792</v>
+        <v>1.32291</v>
       </c>
       <c r="J34">
-        <v>1.32291</v>
-      </c>
-      <c r="K34">
-        <v>1.3263799999999999</v>
-      </c>
-      <c r="L34">
-        <v>1.32267</v>
-      </c>
-      <c r="M34">
-        <v>1.32291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.5281673220251271</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2052,34 +1816,28 @@
         <v>1.5669858967186505</v>
       </c>
       <c r="E35">
-        <v>1.42075</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1.4202999999999999</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1.4190199999999999</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1.4190199999999999</v>
+        <v>1.4208400000000001</v>
+      </c>
+      <c r="F35">
+        <f>E35/C35</f>
+        <v>1.0005422267916371</v>
+      </c>
+      <c r="G35">
+        <v>1.42045</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>1.5674052103023139</v>
       </c>
       <c r="I35">
-        <v>1.42336</v>
+        <v>1.4208400000000001</v>
       </c>
       <c r="J35">
-        <v>1.4208400000000001</v>
-      </c>
-      <c r="K35">
-        <v>1.41954</v>
-      </c>
-      <c r="L35">
-        <v>1.42045</v>
-      </c>
-      <c r="M35">
-        <v>1.4208400000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.5678355584539689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2094,34 +1852,28 @@
         <v>1.5287446369381814</v>
       </c>
       <c r="E36">
-        <v>1.33487</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1.3349599999999999</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1.32514</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1.32514</v>
+        <v>1.33535</v>
+      </c>
+      <c r="F36">
+        <f>E36/C36</f>
+        <v>1.0004495223824685</v>
+      </c>
+      <c r="G36">
+        <v>1.3352299999999999</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>1.5292944008832872</v>
       </c>
       <c r="I36">
-        <v>1.33812</v>
+        <v>1.33535</v>
       </c>
       <c r="J36">
-        <v>1.33535</v>
-      </c>
-      <c r="K36">
-        <v>1.3353999999999999</v>
-      </c>
-      <c r="L36">
-        <v>1.3352299999999999</v>
-      </c>
-      <c r="M36">
-        <v>1.33535</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.5294318418695638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2136,34 +1888,28 @@
         <v>1.685702223409917</v>
       </c>
       <c r="E37">
-        <v>1.5010600000000001</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1.5016400000000001</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1.50339</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1.50339</v>
+        <v>1.50115</v>
+      </c>
+      <c r="F37">
+        <f>E37/C37</f>
+        <v>0.99989342640760404</v>
+      </c>
+      <c r="G37">
+        <v>1.50119</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>1.6855674849036733</v>
       </c>
       <c r="I37">
-        <v>1.5007999999999999</v>
+        <v>1.50115</v>
       </c>
       <c r="J37">
-        <v>1.50115</v>
-      </c>
-      <c r="K37">
-        <v>1.5017199999999999</v>
-      </c>
-      <c r="L37">
-        <v>1.50119</v>
-      </c>
-      <c r="M37">
-        <v>1.50115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.6855225720682585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2178,34 +1924,28 @@
         <v>1.4919859609545343</v>
       </c>
       <c r="E38">
-        <v>1.4820899999999999</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1.4843299999999999</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1.4798100000000001</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1.4798100000000001</v>
+        <v>1.4823500000000001</v>
+      </c>
+      <c r="F38">
+        <f>E38/C38</f>
+        <v>1.0006007587110013</v>
+      </c>
+      <c r="G38">
+        <v>1.48176</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>1.4922880924925348</v>
       </c>
       <c r="I38">
-        <v>1.4852700000000001</v>
+        <v>1.4823500000000001</v>
       </c>
       <c r="J38">
-        <v>1.4823500000000001</v>
-      </c>
-      <c r="K38">
-        <v>1.4819899999999999</v>
-      </c>
-      <c r="L38">
-        <v>1.48176</v>
-      </c>
-      <c r="M38">
-        <v>1.4823500000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.4928822845172693</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2220,34 +1960,28 @@
         <v>1.595247563163765</v>
       </c>
       <c r="E39">
-        <v>1.6454800000000001</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1.6454200000000001</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1.6422099999999999</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1.6422099999999999</v>
+        <v>1.6444799999999999</v>
+      </c>
+      <c r="F39">
+        <f>E39/C39</f>
+        <v>0.99981760478605042</v>
+      </c>
+      <c r="G39">
+        <v>1.6450199999999999</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>1.5954803355802336</v>
       </c>
       <c r="I39">
-        <v>1.6412800000000001</v>
+        <v>1.6444799999999999</v>
       </c>
       <c r="J39">
-        <v>1.6444799999999999</v>
-      </c>
-      <c r="K39">
-        <v>1.6446099999999999</v>
-      </c>
-      <c r="L39">
-        <v>1.6450199999999999</v>
-      </c>
-      <c r="M39">
-        <v>1.6444799999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.5949565976431792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2262,34 +1996,28 @@
         <v>1.3657597384447664</v>
       </c>
       <c r="E40">
-        <v>1.2295499999999999</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1.22481</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1.2313700000000001</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1.2313700000000001</v>
+        <v>1.22726</v>
+      </c>
+      <c r="F40">
+        <f>E40/C40</f>
+        <v>1.0006441250091727</v>
+      </c>
+      <c r="G40">
+        <v>1.22729</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>1.3666728655375813</v>
       </c>
       <c r="I40">
-        <v>1.2269300000000001</v>
+        <v>1.22726</v>
       </c>
       <c r="J40">
-        <v>1.22726</v>
-      </c>
-      <c r="K40">
-        <v>1.2273799999999999</v>
-      </c>
-      <c r="L40">
-        <v>1.22729</v>
-      </c>
-      <c r="M40">
-        <v>1.22726</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.36663945844882</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2304,34 +2032,28 @@
         <v>1.9436911693339631</v>
       </c>
       <c r="E41">
-        <v>1.8003100000000001</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1.7976099999999999</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1.8004899999999999</v>
-      </c>
-      <c r="H41" s="1">
-        <v>1.8004899999999999</v>
+        <v>1.80087</v>
+      </c>
+      <c r="F41">
+        <f>E41/C41</f>
+        <v>1.0014068529866431</v>
+      </c>
+      <c r="G41">
+        <v>1.80142</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>1.9470201109142808</v>
       </c>
       <c r="I41">
-        <v>1.80589</v>
+        <v>1.80087</v>
       </c>
       <c r="J41">
-        <v>1.80087</v>
-      </c>
-      <c r="K41">
-        <v>1.7870900000000001</v>
-      </c>
-      <c r="L41">
-        <v>1.80142</v>
-      </c>
-      <c r="M41">
-        <v>1.80087</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.9464256570606526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2346,34 +2068,28 @@
         <v>1.6555689459882512</v>
       </c>
       <c r="E42">
-        <v>1.5536700000000001</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1.55372</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1.554</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1.554</v>
+        <v>1.5540099999999999</v>
+      </c>
+      <c r="F42">
+        <f>E42/C42</f>
+        <v>1.0001866488170326</v>
+      </c>
+      <c r="G42">
+        <v>1.55416</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>1.6560377887245452</v>
       </c>
       <c r="I42">
-        <v>1.5523400000000001</v>
+        <v>1.5540099999999999</v>
       </c>
       <c r="J42">
-        <v>1.5540099999999999</v>
-      </c>
-      <c r="K42">
-        <v>1.55406</v>
-      </c>
-      <c r="L42">
-        <v>1.55416</v>
-      </c>
-      <c r="M42">
-        <v>1.5540099999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.6558779559735359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2388,34 +2104,28 @@
         <v>1.6604788201082306</v>
       </c>
       <c r="E43">
-        <v>1.5591699999999999</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1.5586199999999999</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1.55707</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1.55707</v>
+        <v>1.55799</v>
+      </c>
+      <c r="F43">
+        <f>E43/C43</f>
+        <v>0.99872434261977727</v>
+      </c>
+      <c r="G43">
+        <v>1.5609500000000001</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>1.6615113105603549</v>
       </c>
       <c r="I43">
-        <v>1.55816</v>
+        <v>1.55799</v>
       </c>
       <c r="J43">
-        <v>1.55799</v>
-      </c>
-      <c r="K43">
-        <v>1.5587599999999999</v>
-      </c>
-      <c r="L43">
-        <v>1.5609500000000001</v>
-      </c>
-      <c r="M43">
-        <v>1.55799</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.6583606180466559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2430,34 +2140,28 @@
         <v>1.8486408496397229</v>
       </c>
       <c r="E44">
-        <v>1.7323200000000001</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1.7323299999999999</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1.72662</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1.72662</v>
+        <v>1.7314799999999999</v>
+      </c>
+      <c r="F44">
+        <f>E44/C44</f>
+        <v>0.99953818089454349</v>
+      </c>
+      <c r="G44">
+        <v>1.73228</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>1.8486408496397229</v>
       </c>
       <c r="I44">
-        <v>1.73281</v>
+        <v>1.7314799999999999</v>
       </c>
       <c r="J44">
-        <v>1.7314799999999999</v>
-      </c>
-      <c r="K44">
-        <v>1.732</v>
-      </c>
-      <c r="L44">
-        <v>1.73228</v>
-      </c>
-      <c r="M44">
-        <v>1.7314799999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.8477871119762319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2472,34 +2176,28 @@
         <v>1.0280389740929281</v>
       </c>
       <c r="E45">
-        <v>1.2660199999999999</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1.2642500000000001</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1.2679400000000001</v>
-      </c>
-      <c r="H45" s="1">
-        <v>1.2679400000000001</v>
+        <v>1.27399</v>
+      </c>
+      <c r="F45">
+        <f>E45/C45</f>
+        <v>1.0045417629294371</v>
+      </c>
+      <c r="G45">
+        <v>1.27277</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>1.0317191401057033</v>
       </c>
       <c r="I45">
-        <v>1.2672000000000001</v>
+        <v>1.27399</v>
       </c>
       <c r="J45">
-        <v>1.27399</v>
-      </c>
-      <c r="K45">
-        <v>1.26709</v>
-      </c>
-      <c r="L45">
-        <v>1.27277</v>
-      </c>
-      <c r="M45">
-        <v>1.27399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.03270808339548</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2514,34 +2212,28 @@
         <v>1.0281113859525404</v>
       </c>
       <c r="E46">
-        <v>0.287775</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0.28768300000000002</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.28712700000000002</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.28712700000000002</v>
+        <v>0.28687699999999999</v>
+      </c>
+      <c r="F46">
+        <f>E46/C46</f>
+        <v>0.99885448075597294</v>
+      </c>
+      <c r="G46">
+        <v>0.28694799999999998</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>1.0271878232916773</v>
       </c>
       <c r="I46">
-        <v>0.28664499999999998</v>
+        <v>0.28687699999999999</v>
       </c>
       <c r="J46">
-        <v>0.28687699999999999</v>
-      </c>
-      <c r="K46">
-        <v>0.28739199999999998</v>
-      </c>
-      <c r="L46">
-        <v>0.28694799999999998</v>
-      </c>
-      <c r="M46">
-        <v>0.28687699999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.0269336645749283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2556,34 +2248,28 @@
         <v>1.0440335830378951</v>
       </c>
       <c r="E47">
-        <v>0.242733</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0.24321300000000001</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.24370800000000001</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.24370800000000001</v>
+        <v>0.24213000000000001</v>
+      </c>
+      <c r="F47">
+        <f>E47/C47</f>
+        <v>0.99903863213444299</v>
+      </c>
+      <c r="G47">
+        <v>0.24218799999999999</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>1.0432797308532313</v>
       </c>
       <c r="I47">
-        <v>0.24271699999999999</v>
+        <v>0.24213000000000001</v>
       </c>
       <c r="J47">
-        <v>0.24213000000000001</v>
-      </c>
-      <c r="K47">
-        <v>0.24299299999999999</v>
-      </c>
-      <c r="L47">
-        <v>0.24218799999999999</v>
-      </c>
-      <c r="M47">
-        <v>0.24213000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.0430298827006002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2598,34 +2284,28 @@
         <v>1.0522344535977255</v>
       </c>
       <c r="E48">
-        <v>1.15388</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1.1494200000000001</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1.15395</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1.15395</v>
+        <v>1.1567400000000001</v>
+      </c>
+      <c r="F48">
+        <f>E48/C48</f>
+        <v>1.0017840440641566</v>
+      </c>
+      <c r="G48">
+        <v>1.15554</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>1.0530181526572866</v>
       </c>
       <c r="I48">
-        <v>1.15459</v>
+        <v>1.1567400000000001</v>
       </c>
       <c r="J48">
-        <v>1.1567400000000001</v>
-      </c>
-      <c r="K48">
-        <v>1.15141</v>
-      </c>
-      <c r="L48">
-        <v>1.15554</v>
-      </c>
-      <c r="M48">
-        <v>1.1567400000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.0541116862287674</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2640,34 +2320,28 @@
         <v>1.0721952466138513</v>
       </c>
       <c r="E49">
-        <v>1.3403700000000001</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1.33439</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1.3407500000000001</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1.3407500000000001</v>
+        <v>1.34632</v>
+      </c>
+      <c r="F49">
+        <f>E49/C49</f>
+        <v>1.0028006197115957</v>
+      </c>
+      <c r="G49">
+        <v>1.3449500000000001</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>1.0741039483772044</v>
       </c>
       <c r="I49">
-        <v>1.3424499999999999</v>
+        <v>1.34632</v>
       </c>
       <c r="J49">
-        <v>1.34632</v>
-      </c>
-      <c r="K49">
-        <v>1.3364799999999999</v>
-      </c>
-      <c r="L49">
-        <v>1.3449500000000001</v>
-      </c>
-      <c r="M49">
-        <v>1.34632</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.0751980577561973</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2682,34 +2356,28 @@
         <v>1.0322512312662184</v>
       </c>
       <c r="E50">
-        <v>1.3631800000000001</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1.3612500000000001</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1.3622099999999999</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1.3622099999999999</v>
+        <v>1.3686799999999999</v>
+      </c>
+      <c r="F50">
+        <f>E50/C50</f>
+        <v>1.0031075019788336</v>
+      </c>
+      <c r="G50">
+        <v>1.36653</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>1.0338323964866358</v>
       </c>
       <c r="I50">
-        <v>1.3648800000000001</v>
+        <v>1.3686799999999999</v>
       </c>
       <c r="J50">
-        <v>1.3686799999999999</v>
-      </c>
-      <c r="K50">
-        <v>1.36243</v>
-      </c>
-      <c r="L50">
-        <v>1.36653</v>
-      </c>
-      <c r="M50">
-        <v>1.3686799999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.0354589540100316</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2723,35 +2391,29 @@
         <f t="shared" si="0"/>
         <v>1.0694945214833156</v>
       </c>
-      <c r="E51" s="1">
-        <v>1.6759900000000001</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1.67465</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1.67465</v>
+      <c r="E51">
+        <v>1.67591</v>
+      </c>
+      <c r="F51">
+        <f>E51/C51</f>
+        <v>0.9999880663273526</v>
+      </c>
+      <c r="G51">
+        <v>1.67608</v>
       </c>
       <c r="H51">
-        <v>1.6756599999999999</v>
+        <f t="shared" si="1"/>
+        <v>1.0695902439646976</v>
       </c>
       <c r="I51">
-        <v>1.67608</v>
+        <v>1.6753800000000001</v>
       </c>
       <c r="J51">
-        <v>1.67591</v>
-      </c>
-      <c r="K51">
-        <v>1.6759900000000001</v>
-      </c>
-      <c r="L51">
-        <v>1.67608</v>
-      </c>
-      <c r="M51">
-        <v>1.6753800000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.0691435390515818</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2760,7 +2422,7 @@
         <v>0.88522269643415441</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:J52" si="1">GEOMEAN(C2:C51)</f>
+        <f t="shared" ref="C52:E52" si="3">GEOMEAN(C2:C51)</f>
         <v>1.1419824922430863</v>
       </c>
       <c r="D52">
@@ -2768,82 +2430,58 @@
         <v>1.290051076235629</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
-        <v>1.1394140012100775</v>
+        <f t="shared" si="3"/>
+        <v>1.1440241059615748</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
-        <v>1.1363930741752357</v>
+        <f>E52/C52</f>
+        <v>1.0017877802263662</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
-        <v>1.1396953724148442</v>
+        <f t="shared" ref="G52" si="4">GEOMEAN(G2:G51)</f>
+        <v>1.1435444104700145</v>
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>1.1397091156123551</v>
+        <v>1.2918155115954766</v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
-        <v>1.1393610828414411</v>
+        <f t="shared" ref="I52" si="5">GEOMEAN(I2:I51)</f>
+        <v>1.1440168689768504</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
-        <v>1.1440241059615748</v>
-      </c>
-      <c r="K52">
-        <f>GEOMEAN(K2:K51)</f>
-        <v>1.140647497763176</v>
-      </c>
-      <c r="L52">
-        <f t="shared" ref="L52" si="2">GEOMEAN(L2:L51)</f>
-        <v>1.1435444104700145</v>
-      </c>
-      <c r="M52">
-        <f t="shared" ref="M52" si="3">GEOMEAN(M2:M51)</f>
-        <v>1.1440168689768504</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1.2923492287140492</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C53">
         <f>(C52-$B52)*100/B52</f>
         <v>29.005107623562896</v>
       </c>
-      <c r="E53">
-        <f>(E52-$B52)*100/C52</f>
-        <v>22.258774237128591</v>
+      <c r="E53" t="e">
+        <f>(E52-$B52)*100/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F53:M53" si="4">(F52-$B52)*100/E52</f>
-        <v>22.04382054936432</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="4"/>
-        <v>22.393015389096718</v>
+        <f>(F52-C52)*100/C52</f>
+        <v>-12.276432692181576</v>
+      </c>
+      <c r="G53" t="e">
+        <f>(G52-$B52)*100/#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="H53">
-        <f t="shared" si="4"/>
-        <v>22.32933688578396</v>
+        <f>(H52-C52)*100/C52</f>
+        <v>13.120430511862546</v>
       </c>
       <c r="I53">
-        <f t="shared" si="4"/>
-        <v>22.298530644877797</v>
+        <f>(I52-$B52)*100/G52</f>
+        <v>22.63088080998337</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
-        <v>22.714608513922393</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="4"/>
-        <v>22.32687230959456</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="4"/>
-        <v>22.646936458672137</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="4"/>
-        <v>22.63088080998337</v>
+        <f>(J52-C52)*100/C52</f>
+        <v>13.167166527711993</v>
       </c>
     </row>
   </sheetData>
